--- a/CaseAndFatalityDemographicsData/2021-06-04.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-06-04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\5.28.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\6.3.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7670168-A57C-4B25-92D9-10C434897224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F63626-8488-4D12-9CAE-4FC2D6AB5535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="806" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="806" activeTab="3" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -615,15 +615,15 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -643,106 +643,106 @@
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>3.5098313016567913E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.5062144194638887E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>1.7360455900667999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.7367700099279907E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>3811</v>
+        <v>3821</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>4.7942534374960689E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.8018800346851319E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>15788</v>
+        <v>15806</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>0.19861367953604811</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.19863521546253127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>17312</v>
+        <v>17337</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>0.21778566126982929</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.2178754100008797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>15201</v>
+        <v>15208</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>0.19122919575801034</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.19112010355271261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>12822</v>
+        <v>12831</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.16130127939011962</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.16124816206502204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>4638</v>
+        <v>4645</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>5.8346227874853759E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.8374071607203447E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>3141</v>
+        <v>3143</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>3.9513907234781299E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.9498322295250902E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -751,34 +751,34 @@
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>2.3952397126718747E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.3927714174405892E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>1.5762790756186234E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.5759114272429091E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>2.4518498949566616E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.4505799705930403E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -787,16 +787,16 @@
       </c>
       <c r="C14" s="9">
         <f t="shared" si="0"/>
-        <v>1.6354052660049565E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.6337199803953602E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
         <f>SUM(B2:B14)</f>
-        <v>79491</v>
+        <v>79573</v>
       </c>
       <c r="C15" s="8">
         <f t="shared" si="0"/>
@@ -814,12 +814,12 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -830,39 +830,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>27080</v>
+        <v>27126</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.34066749694934018</v>
+        <v>0.3408945245246503</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>51513</v>
+        <v>51549</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.64803562667471792</v>
+        <v>0.64782024053384946</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -871,20 +871,20 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.1296876375941931E-2</v>
+        <v>1.1285234941500258E-2</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>79491</v>
+        <v>79573</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
@@ -905,15 +905,15 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -930,16 +930,16 @@
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="6">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C2" s="9">
         <f t="shared" ref="C2" si="0">B2/$B$8</f>
-        <v>1.2114579008944408E-2</v>
+        <v>1.2127229085242481E-2</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="19"/>
@@ -948,16 +948,16 @@
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="6">
-        <v>13049</v>
+        <v>13062</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="1">B3/$B$8</f>
-        <v>0.16415694858537444</v>
+        <v>0.16415115679941689</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="20"/>
@@ -966,16 +966,16 @@
       <c r="I3" s="19"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="6">
-        <v>28467</v>
+        <v>28490</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="1"/>
-        <v>0.35811601313356228</v>
+        <v>0.35803601724202933</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="20"/>
@@ -984,16 +984,16 @@
       <c r="I4" s="19"/>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="6">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" ref="C5" si="2">B5/$B$8</f>
-        <v>7.2586833729604613E-3</v>
+        <v>7.2763374511454889E-3</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="20"/>
@@ -1002,16 +1002,16 @@
       <c r="I5" s="19"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>27756</v>
+        <v>27788</v>
       </c>
       <c r="C6" s="9">
         <f>B6/$B$8</f>
-        <v>0.34917160433256594</v>
+        <v>0.34921392934789441</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="20"/>
@@ -1020,16 +1020,16 @@
       <c r="I6" s="19"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6">
-        <v>8679</v>
+        <v>8689</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>0.10918217156659245</v>
+        <v>0.10919533007427143</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="20"/>
@@ -1038,13 +1038,13 @@
       <c r="I7" s="19"/>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1">
         <f>SUM(B2:B7)</f>
-        <v>79491</v>
+        <v>79573</v>
       </c>
       <c r="C8" s="8">
         <f t="shared" si="1"/>
@@ -1057,7 +1057,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -1065,7 +1065,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
@@ -1073,7 +1073,7 @@
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
@@ -1081,7 +1081,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
@@ -1089,7 +1089,7 @@
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
@@ -1097,7 +1097,7 @@
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -1105,7 +1105,7 @@
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E15" s="18"/>
       <c r="F15" s="21"/>
       <c r="G15" s="18"/>
@@ -1113,7 +1113,7 @@
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="E16" s="18"/>
       <c r="F16" s="21"/>
       <c r="G16" s="18"/>
@@ -1121,7 +1121,7 @@
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E17" s="18"/>
       <c r="F17" s="21"/>
       <c r="G17" s="18"/>
@@ -1129,7 +1129,7 @@
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E18" s="18"/>
       <c r="F18" s="21"/>
       <c r="G18" s="18"/>
@@ -1137,7 +1137,7 @@
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E19" s="18"/>
       <c r="F19" s="21"/>
       <c r="G19" s="18"/>
@@ -1145,7 +1145,7 @@
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E20" s="18"/>
       <c r="F20" s="21"/>
       <c r="G20" s="18"/>
@@ -1153,7 +1153,7 @@
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -1161,7 +1161,7 @@
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -1169,7 +1169,7 @@
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -1186,16 +1186,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F742947-EAB5-4DCC-A1CA-1F4AA7362BD3}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1215,10 +1215,10 @@
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>1.3899644566231807E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.3836726625815379E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1227,130 +1227,130 @@
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.5813625623001925E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.5696778019371419E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>6.552689581223566E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.7206957896817556E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>5.1230118544111514E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5.159122356196877E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>1.7076706181370506E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.7157541016011069E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>2502</v>
+        <v>2528</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>4.9681301006731397E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4.9970349871516107E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>5702</v>
+        <v>5735</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.11322253330950537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.11336232457007314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>4749</v>
+        <v>4775</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>9.4299160064335502E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9.438624234038348E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>6111</v>
+        <v>6140</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0.12134389706320367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.12136785926072347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>6740</v>
+        <v>6768</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0.13383372053771767</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.13378137971931212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>6648</v>
+        <v>6676</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0.13200691010901291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.13196283850563353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>16738</v>
+        <v>16785</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>0.33236035821369708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.33178493773473017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -1362,13 +1362,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="7">
         <f>SUM(B2:B14)</f>
-        <v>50361</v>
+        <v>50590</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="0"/>
@@ -1385,12 +1385,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1401,31 +1401,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>21120</v>
+        <v>21204</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.41937213319830824</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.41913421624827041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>29240</v>
+        <v>29385</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58060801016659713</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.58084601699940697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1434,16 +1434,16 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.9856635094616865E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1.9766752322593396E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>50361</v>
+        <v>50590</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" si="0"/>
@@ -1459,16 +1459,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030A505-56A3-4E91-AD33-A7ADAD482E9C}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1479,68 +1479,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B2">
-        <v>273</v>
+        <v>1080</v>
       </c>
       <c r="C2" s="9">
         <f t="shared" ref="C2" si="0">B2/$B$8</f>
-        <v>5.4208613808304044E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>2.1348092508400869E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B3">
-        <v>5095</v>
+        <v>5129</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="1">B3/$B$8</f>
-        <v>0.10116955580707293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.10138367266258154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B4">
-        <v>23396</v>
+        <v>23500</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="1"/>
-        <v>0.4645658346736562</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.46451867958094484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B5">
-        <v>1074</v>
+        <v>274</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
-        <v>2.1326026091618513E-2</v>
+        <v>5.4160901363905908E-3</v>
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B6">
-        <v>20500</v>
+        <v>20584</v>
       </c>
       <c r="C6" s="9">
         <f>B6/$B$8</f>
-        <v>0.40706101943964573</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.40687882980826251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
@@ -1549,16 +1549,16 @@
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>4.5670260717618793E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4.5463530341964813E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>50361</v>
+        <v>50590</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="1"/>
